--- a/biology/Botanique/Hyphaene_petersiana/Hyphaene_petersiana.xlsx
+++ b/biology/Botanique/Hyphaene_petersiana/Hyphaene_petersiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyphaene petersiana est une espèce de palmier du genre Hyphaene de la famille des Arecaceae, originaire d’Afrique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il possède des grandes feuilles costapalmées, de couleur gris vert, qui sont dotées de segments raides. Les feuilles forment une couronne ronde au sommet d'un stipe massif qui atteint 25 m de hauteur[réf. nécessaire]. Cette espèce de palmier développe généralement un stipe unique ou double.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse dans les savanes du sud-est de l'Afrique, en altitude. Il supporte très bien la sécheresse et pousse dans les régions tropicales ou subtropicales.
 </t>
@@ -573,9 +589,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Botswana, les populations du delta de l'Okavango utilisent sa fibre pour la confection des vanneries locales[1]. En langue locale setswana il y est désigné sous le nom de « mokolane ». Les Himbas (Namibie) le nomment « makalani ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Botswana, les populations du delta de l'Okavango utilisent sa fibre pour la confection des vanneries locales. En langue locale setswana il y est désigné sous le nom de « mokolane ». Les Himbas (Namibie) le nomment « makalani ».
 Le fruit possède une amande très dure de la taille du balle de ping-pong qui, privée de sa cuticule, fournit un "ivoire végétal" utilisé pour la fabrication de bijoux[réf. nécessaire]. Cela lui vaut le nom de "Palmier ivoire" qu'il partage avec d'autres espèces d'Arecaceae sud-américaines ( Phytelephas sp.).
 </t>
         </is>
